--- a/tabtoy/Type.xlsx
+++ b/tabtoy/Type.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="YZAb+gzlgrV0/B8R9GDhapNOopbml9muTxoDffmBCNE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="OvEZpIYgAtUG7z93xWj7rZbIcL5UMa0V5ejF27mnWWg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="69">
   <si>
     <t>种类</t>
   </si>
@@ -93,21 +93,45 @@
     <t>etype</t>
   </si>
   <si>
+    <t>基础防御</t>
+  </si>
+  <si>
+    <t>defb</t>
+  </si>
+  <si>
+    <t>等级加成</t>
+  </si>
+  <si>
+    <t>lvx</t>
+  </si>
+  <si>
+    <t>攻击x</t>
+  </si>
+  <si>
+    <t>atx</t>
+  </si>
+  <si>
+    <t>生命x</t>
+  </si>
+  <si>
+    <t>hpx</t>
+  </si>
+  <si>
     <t>resurl</t>
   </si>
   <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>petres</t>
+  </si>
+  <si>
     <t>数值</t>
   </si>
   <si>
     <t>v0</t>
   </si>
   <si>
-    <t>pet</t>
-  </si>
-  <si>
-    <t>petres</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
@@ -154,6 +178,51 @@
   </si>
   <si>
     <t>boss</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>升级时间</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -688,10 +757,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -705,15 +774,16 @@
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -722,79 +792,83 @@
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
@@ -805,13 +879,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
@@ -822,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
@@ -839,13 +913,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
@@ -856,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
@@ -873,13 +947,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
@@ -890,12 +964,12 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -907,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -924,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
@@ -941,13 +1015,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
@@ -958,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -975,12 +1049,12 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -992,12 +1066,12 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1009,13 +1083,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>11</v>
@@ -1026,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>11</v>
@@ -1043,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>11</v>
@@ -1060,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>11</v>
@@ -1077,9 +1151,9 @@
         <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1094,36 +1168,324 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
-    <row r="38" ht="13.5" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1"/>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="54" ht="13.5" customHeight="1"/>
     <row r="55" ht="13.5" customHeight="1"/>
     <row r="56" ht="13.5" customHeight="1"/>
@@ -2077,6 +2439,11 @@
     <row r="1004" ht="13.5" customHeight="1"/>
     <row r="1005" ht="13.5" customHeight="1"/>
     <row r="1006" ht="13.5" customHeight="1"/>
+    <row r="1007" ht="13.5" customHeight="1"/>
+    <row r="1008" ht="13.5" customHeight="1"/>
+    <row r="1009" ht="13.5" customHeight="1"/>
+    <row r="1010" ht="13.5" customHeight="1"/>
+    <row r="1011" ht="13.5" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>

--- a/tabtoy/Type.xlsx
+++ b/tabtoy/Type.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="OvEZpIYgAtUG7z93xWj7rZbIcL5UMa0V5ejF27mnWWg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="XocNOZL6jBF2rXSrvggAMH/WNEb7uU+loprHrQwjO1E="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="76">
   <si>
     <t>种类</t>
   </si>
@@ -51,6 +51,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -93,22 +96,22 @@
     <t>etype</t>
   </si>
   <si>
+    <t>等级加成</t>
+  </si>
+  <si>
+    <t>lvx</t>
+  </si>
+  <si>
     <t>基础防御</t>
   </si>
   <si>
     <t>defb</t>
   </si>
   <si>
-    <t>等级加成</t>
-  </si>
-  <si>
-    <t>lvx</t>
-  </si>
-  <si>
     <t>攻击x</t>
   </si>
   <si>
-    <t>atx</t>
+    <t>atkx</t>
   </si>
   <si>
     <t>生命x</t>
@@ -117,6 +120,12 @@
     <t>hpx</t>
   </si>
   <si>
+    <t>攻速</t>
+  </si>
+  <si>
+    <t>atksp</t>
+  </si>
+  <si>
     <t>resurl</t>
   </si>
   <si>
@@ -136,6 +145,18 @@
   </si>
   <si>
     <t>iconres</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>skilltype</t>
+  </si>
+  <si>
+    <t>是否拥有</t>
+  </si>
+  <si>
+    <t>own</t>
   </si>
   <si>
     <t>buf</t>
@@ -590,11 +611,11 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -607,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -626,13 +647,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -645,13 +666,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -664,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -683,13 +704,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -699,16 +720,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -718,16 +739,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -736,16 +757,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -754,16 +775,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -772,16 +793,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -790,16 +811,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -808,16 +829,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -826,16 +847,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -844,16 +865,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -862,33 +883,34 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
@@ -896,16 +918,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
@@ -913,16 +935,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
@@ -930,16 +952,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
@@ -947,16 +969,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
@@ -964,16 +986,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
@@ -981,16 +1003,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
@@ -998,16 +1020,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
@@ -1015,16 +1037,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
@@ -1032,16 +1054,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>21</v>
+      <c r="C27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
@@ -1049,16 +1071,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
@@ -1066,16 +1088,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
@@ -1083,16 +1105,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
@@ -1100,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
@@ -1117,16 +1139,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
@@ -1134,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>13</v>
+      <c r="D33" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
@@ -1151,16 +1173,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
@@ -1168,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
@@ -1185,16 +1207,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
@@ -1202,16 +1224,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D37" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
@@ -1219,16 +1241,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
@@ -1236,16 +1258,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
@@ -1253,16 +1275,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
@@ -1270,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
@@ -1287,16 +1309,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
@@ -1304,16 +1326,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
@@ -1321,16 +1343,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
@@ -1338,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
@@ -1355,16 +1377,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
@@ -1372,16 +1394,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
@@ -1389,16 +1411,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
@@ -1406,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
@@ -1423,16 +1445,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
@@ -1440,16 +1462,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
@@ -1457,16 +1479,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
@@ -1474,21 +1496,69 @@
         <v>8</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
+      <c r="D56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="57" ht="13.5" customHeight="1"/>
     <row r="58" ht="13.5" customHeight="1"/>
     <row r="59" ht="13.5" customHeight="1"/>
@@ -2444,6 +2514,9 @@
     <row r="1009" ht="13.5" customHeight="1"/>
     <row r="1010" ht="13.5" customHeight="1"/>
     <row r="1011" ht="13.5" customHeight="1"/>
+    <row r="1012" ht="13.5" customHeight="1"/>
+    <row r="1013" ht="13.5" customHeight="1"/>
+    <row r="1014" ht="13.5" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
